--- a/documents/Published/Brick Chart/BrickChartByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Brick Chart/BrickChartByMAQSoftwareChecklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAQUser\source\repos\NewRepo2\documents\Published\Brick Chart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cutsom Visual\documents\Published\Brick Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A30763E-A21C-4B3A-BF9F-22A7E485BE62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C323E992-33E8-4B1A-B4CC-F77D72AC9753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1AF0E79B-7FE4-4698-B98E-B5963A3F5031}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>Feature</t>
   </si>
@@ -262,15 +262,6 @@
     <t>Shape</t>
   </si>
   <si>
-    <t>1. Go to formatting pane
-2. Update 'Box shape' to rectangle
-3. Update 'Brick type' to circle</t>
-  </si>
-  <si>
-    <t>1. The shape of the chart should be turned to 'rectangle'
-2. The data points should be dispayed as 'circle'</t>
-  </si>
-  <si>
     <t>Is Report tooltip working properly?</t>
   </si>
   <si>
@@ -295,6 +286,27 @@
   </si>
   <si>
     <t>1. On right click of the chart and selecting the drillthrough option from the context-menu , the report will drillthrough to the newly created report page.</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Internet Explorer</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>1. Go to formatting pane
+2. Update 'Box shape' to rectangle
+3. Update 'Brick type' to Dot</t>
+  </si>
+  <si>
+    <t>1. The shape of the chart should be turned to 'rectangle'
+2. The data points should be dispayed as 'Dot'</t>
   </si>
 </sst>
 </file>
@@ -478,6 +490,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -496,10 +512,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,6 +527,1595 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2466975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>33457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1B287D-A09E-4993-8A8E-2D4DA08591E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11906250" y="219075"/>
+          <a:ext cx="2190750" cy="1967032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2613043</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1924050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038DE0DE-76DB-4ADC-9B46-9C000ED9DE5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11525250" y="190500"/>
+          <a:ext cx="2613043" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3105150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1858577</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F585FE-9559-4808-9EF5-7A36306658EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11591925" y="190500"/>
+          <a:ext cx="2524125" cy="1858577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2339290</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1685926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF10E1F7-2D0E-42FD-BB6E-A6CADDAD8701}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9744075" y="304800"/>
+          <a:ext cx="1996390" cy="1571626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2514600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2180770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F0DE3A-DAEF-481F-A035-B0014AC196F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18735675" y="2305050"/>
+          <a:ext cx="2276475" cy="2028370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2532604</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2105025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D4A04A-8CE4-4C8F-BB4D-657A2C08B626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15992475" y="2438400"/>
+          <a:ext cx="2342104" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3190874</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2269543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7651701-E43E-47FE-AA52-69A0A456CCFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12325349" y="2343150"/>
+          <a:ext cx="2676525" cy="2079043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2380204</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2114550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15EF59A-AB1C-4787-8A20-4260A9DD1AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9439275" y="2447925"/>
+          <a:ext cx="2342104" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3105669</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2162175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33EE7D0-8BB6-4FA8-B99E-8B4796E204C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18935700" y="4695826"/>
+          <a:ext cx="2667519" cy="2085974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2933437</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2133600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D71D67D-6837-4FC3-A088-5CCAFEEB374C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20793074" y="4695825"/>
+          <a:ext cx="2600063" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3266813</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2133600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2210DB8D-1BE0-4147-9BBD-B654619D81C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12477750" y="4695825"/>
+          <a:ext cx="2600063" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2600063</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2057400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{115E1C4A-E3AA-45DD-A69B-CB75297AC995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9401175" y="4619625"/>
+          <a:ext cx="2600063" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2762249</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1898842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0A2AED-32D2-4A6E-AA56-FE17BAA86DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18811874" y="6981825"/>
+          <a:ext cx="2447925" cy="1879792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2450240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1800224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C616068-4427-4D5B-8259-28B5D9505F46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15963900" y="6981824"/>
+          <a:ext cx="2288315" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3050315</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1828800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9B9CE0-F54A-4CC9-AE51-0CC448ADB6D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12573000" y="7010400"/>
+          <a:ext cx="2288315" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2431190</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1838325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA273316-700D-4281-AC9E-9BD442C0AB67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9544050" y="7019925"/>
+          <a:ext cx="2288315" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2314575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1831620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1182E25-C220-4278-8F84-4A351EC6E33D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9515475" y="9001125"/>
+          <a:ext cx="2200275" cy="1707795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2695575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1793520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F44F5D-D571-4473-B55F-CB5C37800454}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12306300" y="8963025"/>
+          <a:ext cx="2200275" cy="1707795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2409825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1841145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A3037A-8E28-4A0E-86B0-7AA5CF56D5D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16011525" y="9010650"/>
+          <a:ext cx="2200275" cy="1707795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2733675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2054415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ACB545C-65B0-42B9-9DF2-E1D4C4FDA13D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18735675" y="8991601"/>
+          <a:ext cx="2495550" cy="1940114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1926870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0F9300-4E9C-4860-9994-13B790CB6C8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525000" y="11468100"/>
+          <a:ext cx="2200275" cy="1707795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2609850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1812570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CBA68DB-FAE6-4BD7-AA6B-78CBABA50131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12220575" y="11353800"/>
+          <a:ext cx="2200275" cy="1707795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2428875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1879245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{226E0C5B-3CB2-4C2A-9972-78CF99056AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16030575" y="11420475"/>
+          <a:ext cx="2200275" cy="1707795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2362200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2695575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1930589</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C20B25B-6ED6-45F0-94C1-4A2F0D94765D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18697575" y="11239500"/>
+          <a:ext cx="2495550" cy="1940114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>276226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2162175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1710548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD08112-FD64-4BA2-92A4-464CD00F1551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9705975" y="13611226"/>
+          <a:ext cx="1857375" cy="1434322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2438400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1520047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FCDFC30-E34D-4EC9-9D6D-0228A0208170}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12392025" y="13420725"/>
+          <a:ext cx="1857375" cy="1434322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1500997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A78C438F-7768-43A7-B0E9-116D865F81BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16087725" y="13401675"/>
+          <a:ext cx="1857375" cy="1434322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2457450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1529572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EDFE39-0E14-4F3E-BEEC-4752620263AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19097625" y="13430250"/>
+          <a:ext cx="1857375" cy="1434322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5660113</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2076449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F1D883-589A-437F-BB33-231AF85CD7C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9553576" y="15306675"/>
+          <a:ext cx="5507712" cy="1943099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5526762</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2143124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA09A8E-A319-4AD4-9527-D72DEB4E1A0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15611475" y="15373350"/>
+          <a:ext cx="5507712" cy="1943099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5507712</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1943099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C6BF52-959B-4217-BE70-307FD5866F0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21183600" y="15173325"/>
+          <a:ext cx="5507712" cy="1943099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3384136</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2609850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D2DAAC1-199F-4BDA-8A02-C23292B48C61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27670125" y="15278100"/>
+          <a:ext cx="3241261" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3333750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2514600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>24697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D9DE79-7AEF-46DC-8571-674E29C6FB6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9867900" y="18507075"/>
+          <a:ext cx="2047875" cy="1615372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>34222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78CE9F9-A53B-4329-BD38-8B33826EA330}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15592425" y="18516600"/>
+          <a:ext cx="2047875" cy="1615372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>34222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7454293A-D438-4C77-B242-8D857A9BB556}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21183600" y="18516600"/>
+          <a:ext cx="2047875" cy="1615372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>34222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0327711-34E7-47B8-9F6F-1CF932A4F994}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27527250" y="18516600"/>
+          <a:ext cx="2047875" cy="1615372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -814,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6597BE80-5597-4BE2-86EA-034E95536383}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C29"/>
+    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,9 +2426,13 @@
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="48.42578125" customWidth="1"/>
     <col min="4" max="4" width="49.85546875" customWidth="1"/>
+    <col min="5" max="5" width="92.85546875" customWidth="1"/>
+    <col min="6" max="6" width="83.85546875" customWidth="1"/>
+    <col min="7" max="7" width="95.140625" customWidth="1"/>
+    <col min="8" max="8" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,8 +2445,20 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -855,7 +2472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -869,7 +2486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -883,7 +2500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -897,7 +2514,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -911,7 +2528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -925,7 +2542,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -933,44 +2550,45 @@
         <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C10" s="17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22" t="s">
+      <c r="D10" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1164,29 +2782,29 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -1200,41 +2818,41 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="18">
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="20"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -1263,7 +2881,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>16</v>
